--- a/Курс доллара США.xlsx
+++ b/Курс доллара США.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,54 +483,6 @@
         <v>3.1768</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="d">
-        <v>2024-06-06T00:00:00</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>3.1805</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="d">
-        <v>2024-06-07T00:00:00</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="d">
-        <v>2024-06-08T00:00:00</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="d">
-        <v>2024-06-09T00:00:00</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="d">
-        <v>2024-06-10T00:00:00</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>3.1831</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="d">
-        <v>2024-06-11T00:00:00</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>3.1862</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
